--- a/biology/Médecine/Faculté_de_médecine/Faculté_de_médecine.xlsx
+++ b/biology/Médecine/Faculté_de_médecine/Faculté_de_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine</t>
+          <t>Faculté_de_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une faculté de médecine est une institution universitaire s'occupant de la formation des médecins.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine</t>
+          <t>Faculté_de_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Maroc
-Tunisie
-Voir: Études de médecine-Tunisie
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voir: Études de médecine-Tunisie
 Faculté de médecine Ibn El Jazzar de l'Université de Sousse
 Faculté de médecine de Tunis
 Faculté de médecine de Sfax
 Faculté de médecine de Monastir
-Faculté de médecine dentaire de Monastir [1]</t>
+Faculté de médecine dentaire de Monastir </t>
         </is>
       </c>
     </row>
@@ -530,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine</t>
+          <t>Faculté_de_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,15 +564,12 @@
           <t>Amérique du Nord</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Aux États-Unis et au Canada, l'entrée dans une faculté de médecine (medical school) se fait après l'obtention d'un diplôme de premier cycle, sauf au Québec.
-Canada
-Québec
-Faculté de médecine de l'Université Laval
-Faculté de médecine de l'Université McGill
-Faculté de médecine de l'Université de Montréal
-Faculté de médecine de l'Université de Sherbrooke</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux États-Unis et au Canada, l'entrée dans une faculté de médecine (medical school) se fait après l'obtention d'un diplôme de premier cycle, sauf au Québec.
+</t>
         </is>
       </c>
     </row>
@@ -566,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_m%C3%A9decine</t>
+          <t>Faculté_de_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,19 +594,132 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Amérique du Nord</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Faculté de médecine de l'Université Laval
+Faculté de médecine de l'Université McGill
+Faculté de médecine de l'Université de Montréal
+Faculté de médecine de l'Université de Sherbrooke</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Faculté_de_médecine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>France
-En France, la faculté de médecine était jusqu'à la loi Faure (1968) une des quatre facultés à côté de celles de droit, de lettres et de sciences.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, la faculté de médecine était jusqu'à la loi Faure (1968) une des quatre facultés à côté de celles de droit, de lettres et de sciences.
 Supprimées avec toutes les universités par Révolution française, elles avaient été restaurées par Napoléon sous le nom d'écoles de médecine.
 Sous l'Ancien Régime, les écoles de médecines étaient une des quatre facultés de l'Université, avec la faculté des arts (correspondant à l'enseignement secondaire), la faculté de théologie (correspondant aux facultés de lettres, puis des sciences) et la faculté de droit.
-Serbie
-Faculté de médecine de l'université de Belgrade
-Suisse
-Les études de médecine sont assurées par cinq universités suisses (ou six, si l'on compte l'Université de Fribourg) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Faculté_de_médecine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Serbie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Faculté de médecine de l'université de Belgrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Faculté_de_médecine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Facult%C3%A9_de_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Suisse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les études de médecine sont assurées par cinq universités suisses (ou six, si l'on compte l'Université de Fribourg) :
 Faculté de médecine de l'Université de Bâle
 Faculté de médecine de l'Université de Berne (voir aussi Hôpital de l'Île)
 Département de médecine de l'Université de Fribourg (seulement pour les trois premières des six années des études de médecine)
